--- a/ShortversionILS/D4SMRC.xlsx
+++ b/ShortversionILS/D4SMRC.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:N260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -523,8 +523,8 @@
         <v>5</v>
       </c>
       <c r="M2">
-        <f>IF(L2&lt;4,IF(L2&lt;2,IF(L2&lt;-1,IF(L2&lt;-3,0,1),2),3),4)</f>
-        <v>4</v>
+        <f>IF(L2&lt;9,IF(L2&lt;5,IF(L2&lt;-3,IF(L2&lt;-7,0,1),2),3),4)</f>
+        <v>3</v>
       </c>
       <c r="N2">
         <f>IF(M2&lt;3,IF(M2&lt;2,0,1),2)</f>
@@ -570,8 +570,8 @@
         <v>7</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="1">IF(L3&lt;4,IF(L3&lt;2,IF(L3&lt;-1,IF(L3&lt;-3,0,1),2),3),4)</f>
-        <v>4</v>
+        <f t="shared" ref="M3:M66" si="1">IF(L3&lt;9,IF(L3&lt;5,IF(L3&lt;-3,IF(L3&lt;-7,0,1),2),3),4)</f>
+        <v>3</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="2">IF(M3&lt;3,IF(M3&lt;2,0,1),2)</f>
@@ -665,11 +665,11 @@
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -712,11 +712,11 @@
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -853,11 +853,11 @@
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -947,11 +947,11 @@
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <f t="shared" si="2"/>
@@ -1229,11 +1229,11 @@
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <f t="shared" si="2"/>
@@ -1464,11 +1464,11 @@
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
         <f t="shared" si="2"/>
@@ -1699,11 +1699,11 @@
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -1934,11 +1934,11 @@
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <f t="shared" si="2"/>
@@ -2028,11 +2028,11 @@
       </c>
       <c r="M34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="M35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <f t="shared" si="2"/>
@@ -2263,11 +2263,11 @@
       </c>
       <c r="M39">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2310,11 +2310,11 @@
       </c>
       <c r="M40">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="M41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <f t="shared" si="2"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="M42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <f t="shared" si="2"/>
@@ -2451,11 +2451,11 @@
       </c>
       <c r="M43">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="M45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <f t="shared" si="2"/>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="M47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <f t="shared" si="2"/>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="M49">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49">
         <f t="shared" si="2"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="M50">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N50">
         <f t="shared" si="2"/>
@@ -2874,11 +2874,11 @@
       </c>
       <c r="M52">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N52">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="M53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
         <f t="shared" si="2"/>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="M55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55">
         <f t="shared" si="2"/>
@@ -3062,11 +3062,11 @@
       </c>
       <c r="M56">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -3156,11 +3156,11 @@
       </c>
       <c r="M58">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -3203,11 +3203,11 @@
       </c>
       <c r="M59">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -3297,11 +3297,11 @@
       </c>
       <c r="M61">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N61">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="M62">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62">
         <f t="shared" si="2"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="M63">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N63">
         <f t="shared" si="2"/>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="M66">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66">
         <f t="shared" si="2"/>
@@ -3578,8 +3578,8 @@
         <v>7</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="4">IF(L67&lt;4,IF(L67&lt;2,IF(L67&lt;-1,IF(L67&lt;-3,0,1),2),3),4)</f>
-        <v>4</v>
+        <f t="shared" ref="M67:M130" si="4">IF(L67&lt;9,IF(L67&lt;5,IF(L67&lt;-3,IF(L67&lt;-7,0,1),2),3),4)</f>
+        <v>3</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N130" si="5">IF(M67&lt;3,IF(M67&lt;2,0,1),2)</f>
@@ -3767,11 +3767,11 @@
       </c>
       <c r="M71">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N71">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="M72">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72">
         <f t="shared" si="5"/>
@@ -3861,11 +3861,11 @@
       </c>
       <c r="M73">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N73">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="M74">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74">
         <f t="shared" si="5"/>
@@ -3955,11 +3955,11 @@
       </c>
       <c r="M75">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N75">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -4002,11 +4002,11 @@
       </c>
       <c r="M76">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N76">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="M82">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N82">
         <f t="shared" si="5"/>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="M83">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83">
         <f t="shared" si="5"/>
@@ -4425,11 +4425,11 @@
       </c>
       <c r="M85">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N85">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="M86">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86">
         <f t="shared" si="5"/>
@@ -4519,11 +4519,11 @@
       </c>
       <c r="M87">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N87">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="M88">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N88">
         <f t="shared" si="5"/>
@@ -4613,11 +4613,11 @@
       </c>
       <c r="M89">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N89">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="M91">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <f t="shared" si="5"/>
@@ -4801,11 +4801,11 @@
       </c>
       <c r="M93">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N93">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="M94">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94">
         <f t="shared" si="5"/>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="M96">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96">
         <f t="shared" si="5"/>
@@ -5036,11 +5036,11 @@
       </c>
       <c r="M98">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N98">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="M99">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N99">
         <f t="shared" si="5"/>
@@ -5130,11 +5130,11 @@
       </c>
       <c r="M100">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N100">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -5177,11 +5177,11 @@
       </c>
       <c r="M101">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N101">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -5224,11 +5224,11 @@
       </c>
       <c r="M102">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N102">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -5318,11 +5318,11 @@
       </c>
       <c r="M104">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N104">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -5365,11 +5365,11 @@
       </c>
       <c r="M105">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N105">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="M107">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N107">
         <f t="shared" si="5"/>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="M110">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N110">
         <f t="shared" si="5"/>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="M111">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N111">
         <f t="shared" si="5"/>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="M113">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N113">
         <f t="shared" si="5"/>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="M114">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114">
         <f t="shared" si="5"/>
@@ -6023,11 +6023,11 @@
       </c>
       <c r="M119">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N119">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -6211,11 +6211,11 @@
       </c>
       <c r="M123">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N123">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
@@ -6258,11 +6258,11 @@
       </c>
       <c r="M124">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N124">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="M125">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N125">
         <f t="shared" si="5"/>
@@ -6352,11 +6352,11 @@
       </c>
       <c r="M126">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N126">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
@@ -6493,11 +6493,11 @@
       </c>
       <c r="M129">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N129">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -6540,11 +6540,11 @@
       </c>
       <c r="M130">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N130">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
@@ -6586,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M194" si="7">IF(L131&lt;4,IF(L131&lt;2,IF(L131&lt;-1,IF(L131&lt;-3,0,1),2),3),4)</f>
+        <f t="shared" ref="M131:M194" si="7">IF(L131&lt;9,IF(L131&lt;5,IF(L131&lt;-3,IF(L131&lt;-7,0,1),2),3),4)</f>
         <v>2</v>
       </c>
       <c r="N131">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="M133">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N133">
         <f t="shared" si="8"/>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="M135">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135">
         <f t="shared" si="8"/>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="M137">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N137">
         <f t="shared" si="8"/>
@@ -6916,11 +6916,11 @@
       </c>
       <c r="M138">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N138">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="M139">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N139">
         <f t="shared" si="8"/>
@@ -7010,7 +7010,7 @@
       </c>
       <c r="M140">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140">
         <f t="shared" si="8"/>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="M142">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N142">
         <f t="shared" si="8"/>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="M143">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143">
         <f t="shared" si="8"/>
@@ -7198,11 +7198,11 @@
       </c>
       <c r="M144">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N144">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="M146">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N146">
         <f t="shared" si="8"/>
@@ -7339,11 +7339,11 @@
       </c>
       <c r="M147">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N147">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="M149">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N149">
         <f t="shared" si="8"/>
@@ -7527,7 +7527,7 @@
       </c>
       <c r="M151">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N151">
         <f t="shared" si="8"/>
@@ -7621,11 +7621,11 @@
       </c>
       <c r="M153">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N153">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
@@ -7715,7 +7715,7 @@
       </c>
       <c r="M155">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N155">
         <f t="shared" si="8"/>
@@ -7762,7 +7762,7 @@
       </c>
       <c r="M156">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N156">
         <f t="shared" si="8"/>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="M157">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N157">
         <f t="shared" si="8"/>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="M159">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N159">
         <f t="shared" si="8"/>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="M161">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N161">
         <f t="shared" si="8"/>
@@ -8091,11 +8091,11 @@
       </c>
       <c r="M163">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N163">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="M164">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N164">
         <f t="shared" si="8"/>
@@ -8185,11 +8185,11 @@
       </c>
       <c r="M165">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N165">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -8279,11 +8279,11 @@
       </c>
       <c r="M167">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N167">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -8326,11 +8326,11 @@
       </c>
       <c r="M168">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N168">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="M169">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N169">
         <f t="shared" si="8"/>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="M173">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N173">
         <f t="shared" si="8"/>
@@ -8702,7 +8702,7 @@
       </c>
       <c r="M176">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N176">
         <f t="shared" si="8"/>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="M180">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N180">
         <f t="shared" si="8"/>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="M181">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N181">
         <f t="shared" si="8"/>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="M183">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N183">
         <f t="shared" si="8"/>
@@ -9078,7 +9078,7 @@
       </c>
       <c r="M184">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N184">
         <f t="shared" si="8"/>
@@ -9219,11 +9219,11 @@
       </c>
       <c r="M187">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N187">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="M188">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N188">
         <f t="shared" si="8"/>
@@ -9360,11 +9360,11 @@
       </c>
       <c r="M190">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N190">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
@@ -9407,7 +9407,7 @@
       </c>
       <c r="M191">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N191">
         <f t="shared" si="8"/>
@@ -9454,7 +9454,7 @@
       </c>
       <c r="M192">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N192">
         <f t="shared" si="8"/>
@@ -9548,11 +9548,11 @@
       </c>
       <c r="M194">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N194">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
@@ -9594,7 +9594,7 @@
         <v>-1</v>
       </c>
       <c r="M195">
-        <f t="shared" ref="M195:M258" si="10">IF(L195&lt;4,IF(L195&lt;2,IF(L195&lt;-1,IF(L195&lt;-3,0,1),2),3),4)</f>
+        <f t="shared" ref="M195:M258" si="10">IF(L195&lt;9,IF(L195&lt;5,IF(L195&lt;-3,IF(L195&lt;-7,0,1),2),3),4)</f>
         <v>2</v>
       </c>
       <c r="N195">
@@ -9689,7 +9689,7 @@
       </c>
       <c r="M197">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N197">
         <f t="shared" si="11"/>
@@ -9830,11 +9830,11 @@
       </c>
       <c r="M200">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N200">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="M201">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N201">
         <f t="shared" si="11"/>
@@ -10018,11 +10018,11 @@
       </c>
       <c r="M204">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N204">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
@@ -10206,11 +10206,11 @@
       </c>
       <c r="M208">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N208">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
@@ -10253,11 +10253,11 @@
       </c>
       <c r="M209">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N209">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
@@ -10300,11 +10300,11 @@
       </c>
       <c r="M210">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N210">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
@@ -10347,11 +10347,11 @@
       </c>
       <c r="M211">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N211">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
@@ -10535,11 +10535,11 @@
       </c>
       <c r="M215">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N215">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
@@ -10629,11 +10629,11 @@
       </c>
       <c r="M217">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N217">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
@@ -10676,11 +10676,11 @@
       </c>
       <c r="M218">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N218">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
@@ -10723,11 +10723,11 @@
       </c>
       <c r="M219">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N219">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
@@ -10770,11 +10770,11 @@
       </c>
       <c r="M220">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N220">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
@@ -10817,11 +10817,11 @@
       </c>
       <c r="M221">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N221">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
@@ -10864,11 +10864,11 @@
       </c>
       <c r="M222">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N222">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="M224">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N224">
         <f t="shared" si="11"/>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="M225">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N225">
         <f t="shared" si="11"/>
@@ -11099,7 +11099,7 @@
       </c>
       <c r="M227">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N227">
         <f t="shared" si="11"/>
@@ -11146,7 +11146,7 @@
       </c>
       <c r="M228">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N228">
         <f t="shared" si="11"/>
@@ -11193,7 +11193,7 @@
       </c>
       <c r="M229">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N229">
         <f t="shared" si="11"/>
@@ -11240,7 +11240,7 @@
       </c>
       <c r="M230">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N230">
         <f t="shared" si="11"/>
@@ -11381,11 +11381,11 @@
       </c>
       <c r="M233">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N233">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
@@ -11428,7 +11428,7 @@
       </c>
       <c r="M234">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N234">
         <f t="shared" si="11"/>
@@ -11522,11 +11522,11 @@
       </c>
       <c r="M236">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N236">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
@@ -11569,11 +11569,11 @@
       </c>
       <c r="M237">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N237">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
@@ -11616,7 +11616,7 @@
       </c>
       <c r="M238">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N238">
         <f t="shared" si="11"/>
@@ -11710,7 +11710,7 @@
       </c>
       <c r="M240">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N240">
         <f t="shared" si="11"/>
@@ -11804,11 +11804,11 @@
       </c>
       <c r="M242">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N242">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
@@ -11851,11 +11851,11 @@
       </c>
       <c r="M243">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N243">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
@@ -11898,11 +11898,11 @@
       </c>
       <c r="M244">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N244">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
@@ -12086,11 +12086,11 @@
       </c>
       <c r="M248">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N248">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
@@ -12133,7 +12133,7 @@
       </c>
       <c r="M249">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N249">
         <f t="shared" si="11"/>
@@ -12227,7 +12227,7 @@
       </c>
       <c r="M251">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N251">
         <f t="shared" si="11"/>
@@ -12368,7 +12368,7 @@
       </c>
       <c r="M254">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N254">
         <f t="shared" si="11"/>
@@ -12509,7 +12509,7 @@
       </c>
       <c r="M257">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N257">
         <f t="shared" si="11"/>
@@ -12556,11 +12556,11 @@
       </c>
       <c r="M258">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N258">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
@@ -12602,12 +12602,12 @@
         <v>3</v>
       </c>
       <c r="M259">
-        <f t="shared" ref="M259:M260" si="13">IF(L259&lt;4,IF(L259&lt;2,IF(L259&lt;-1,IF(L259&lt;-3,0,1),2),3),4)</f>
-        <v>3</v>
+        <f t="shared" ref="M259:M260" si="13">IF(L259&lt;9,IF(L259&lt;5,IF(L259&lt;-3,IF(L259&lt;-7,0,1),2),3),4)</f>
+        <v>2</v>
       </c>
       <c r="N259">
         <f t="shared" ref="N259:N260" si="14">IF(M259&lt;3,IF(M259&lt;2,0,1),2)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
